--- a/data/raw/Material.xlsx
+++ b/data/raw/Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633ED7C-4335-A24E-B636-C83AB51D58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36963D4-95A6-1242-83A6-8DD7791F5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="620" windowWidth="42100" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19320" yWindow="620" windowWidth="42100" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>data_daschland.xml</t>
+  </si>
+  <si>
+    <t>Multimedia Folder</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>processed</t>
   </si>
 </sst>
 </file>
@@ -583,10 +592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I3" sqref="I3:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,12 +604,13 @@
     <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +635,11 @@
       <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -648,8 +661,11 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -671,8 +687,11 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -694,8 +713,11 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -717,8 +739,11 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -740,8 +765,11 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -763,8 +791,11 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -786,8 +817,11 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -809,8 +843,11 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -832,8 +869,11 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -855,8 +895,11 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -878,8 +921,11 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -901,8 +947,11 @@
       <c r="H13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -924,8 +973,11 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -947,8 +999,11 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -970,8 +1025,11 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -993,8 +1051,11 @@
       <c r="H17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1016,8 +1077,11 @@
       <c r="H18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1039,8 +1103,11 @@
       <c r="H19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1061,6 +1128,9 @@
       </c>
       <c r="H20" t="s">
         <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Material.xlsx
+++ b/data/raw/Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36963D4-95A6-1242-83A6-8DD7791F5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E7006-2D32-6444-AD48-6A80B2B63D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19320" yWindow="620" windowWidth="42100" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,18 +82,12 @@
     <t>csv file for Nodegoat import for Book class</t>
   </si>
   <si>
-    <t>Book.csv</t>
-  </si>
-  <si>
     <t>MAT_005</t>
   </si>
   <si>
     <t>csv file for Nodegoat import for Book Chapter class</t>
   </si>
   <si>
-    <t>BookChapter.csv</t>
-  </si>
-  <si>
     <t>MAT_006</t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>Story.csv</t>
+  </si>
+  <si>
+    <t>StoryChapter.csv</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -647,22 +647,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -740,18 +740,18 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -766,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -792,19 +792,19 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -844,19 +844,19 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -870,19 +870,19 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -896,19 +896,19 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -922,19 +922,19 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -948,19 +948,19 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -1000,19 +1000,19 @@
         <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -1026,19 +1026,19 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -1052,19 +1052,19 @@
         <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -1078,19 +1078,19 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -1104,19 +1104,19 @@
         <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
